--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037093E7-8740-4019-99A4-B0BD6DC83325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9507A873-F105-4384-9C03-DB86CD02238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sodium-ion batteries" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5547" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="904">
   <si>
     <t>Database</t>
   </si>
@@ -2354,9 +2367,6 @@
     <t>ei_3.9.1_cutoff</t>
   </si>
   <si>
-    <t>21700 cell</t>
-  </si>
-  <si>
     <t>hydrochloric acid, without water, in 30% solution state</t>
   </si>
   <si>
@@ -2879,14 +2889,70 @@
     <t>Originally from Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073</t>
   </si>
   <si>
-    <t>Inventory provided by Wickerts et al. (2023). Originally from Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073</t>
+    <t>Multiplied by (1/0.045) to transform from unit cell to kilogram of cell</t>
+  </si>
+  <si>
+    <t>Multiplied by (1/0.053177) to transform from unit cell to kilogram of cell</t>
+  </si>
+  <si>
+    <t>Multiplied by (1/0.0562) to transform from unit cell to kilogram of cell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resources, Conservation and Recycling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
+    </r>
+  </si>
+  <si>
+    <t>Inventory provided by Zhang et al. (2024). Originally from Weber et al. (2018). Life cycle assessment of a vanadium redox flow battery. Environmental science &amp; technology, 52(18), 10864-10873. https://doi.org/10.1021/acs.est.8b02073</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2896,6 +2962,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3267,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1001" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1024" sqref="B1024"/>
+    <sheetView tabSelected="1" topLeftCell="A1048" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1075" sqref="B1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,10 +3366,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" t="s">
         <v>894</v>
-      </c>
-      <c r="B2" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3303,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3327,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,10 +3422,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B10" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3384,7 +3458,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3402,12 +3476,12 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B14">
         <v>1.2140184349262255</v>
@@ -3425,12 +3499,12 @@
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B15">
         <v>1.2140184349262255</v>
@@ -3448,7 +3522,7 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3594,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,7 +3692,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3639,10 +3713,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B29" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3675,7 +3749,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3693,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3771,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3792,10 +3866,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B42" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3851,7 +3925,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3869,12 +3943,12 @@
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B47">
         <v>2.2000000000000002</v>
@@ -4061,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4085,7 +4159,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4106,10 +4180,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B62" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4142,7 +4216,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4160,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4307,7 +4381,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4328,10 +4402,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B79" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4467,7 +4541,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4485,7 +4559,7 @@
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4723,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4768,10 +4842,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B106" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4847,7 +4921,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4865,7 +4939,7 @@
         <v>20</v>
       </c>
       <c r="H111" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4988,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -5012,7 +5086,7 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5033,10 +5107,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B124" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5092,7 +5166,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B128">
         <v>16.562049113719404</v>
@@ -5110,12 +5184,12 @@
         <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B129">
         <v>0.70764782673161575</v>
@@ -5133,12 +5207,12 @@
         <v>21</v>
       </c>
       <c r="H129" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B130">
         <v>13.02072001186173</v>
@@ -5156,7 +5230,7 @@
         <v>21</v>
       </c>
       <c r="H130" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5279,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5324,10 +5398,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B143" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5403,7 +5477,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5426,7 +5500,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B149">
         <v>2.75E-2</v>
@@ -5444,12 +5518,12 @@
         <v>21</v>
       </c>
       <c r="H149" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B150">
         <v>0.33600000000000002</v>
@@ -5467,7 +5541,7 @@
         <v>21</v>
       </c>
       <c r="H150" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5683,7 +5757,7 @@
         <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5704,10 +5778,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B166" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -5763,7 +5837,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B170">
         <v>20.9977698868578</v>
@@ -5781,12 +5855,12 @@
         <v>20</v>
       </c>
       <c r="H170" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B171">
         <v>0.37177354615541464</v>
@@ -5804,12 +5878,12 @@
         <v>21</v>
       </c>
       <c r="H171" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B172">
         <v>17.8451302154599</v>
@@ -5950,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -5974,7 +6048,7 @@
         <v>7</v>
       </c>
       <c r="B182" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -5995,10 +6069,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B185" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6054,7 +6128,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B189">
         <v>13.018168247328598</v>
@@ -6072,12 +6146,12 @@
         <v>20</v>
       </c>
       <c r="H189" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B190">
         <v>0.55460691116478344</v>
@@ -6095,12 +6169,12 @@
         <v>21</v>
       </c>
       <c r="H190" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B191">
         <v>10.204767165432015</v>
@@ -6118,7 +6192,7 @@
         <v>21</v>
       </c>
       <c r="H191" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6241,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6278,10 +6352,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B203" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -6377,7 +6451,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B209">
         <v>0.18852782774999999</v>
@@ -6400,7 +6474,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B210">
         <v>0.13861725499999999</v>
@@ -6418,7 +6492,7 @@
         <v>21</v>
       </c>
       <c r="H210" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -6564,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -6588,7 +6662,7 @@
         <v>7</v>
       </c>
       <c r="B221" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -6601,10 +6675,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B223" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -6660,7 +6734,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B227">
         <v>21.612062241046353</v>
@@ -6678,12 +6752,12 @@
         <v>20</v>
       </c>
       <c r="H227" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B228">
         <v>0.39372064434026838</v>
@@ -6701,12 +6775,12 @@
         <v>21</v>
       </c>
       <c r="H228" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B229">
         <v>18.898590928332883</v>
@@ -6870,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -6894,7 +6968,7 @@
         <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -6915,10 +6989,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B243" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -7054,7 +7128,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -7072,12 +7146,12 @@
         <v>20</v>
       </c>
       <c r="H251" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B252">
         <v>0.19777800000000001</v>
@@ -7095,7 +7169,7 @@
         <v>21</v>
       </c>
       <c r="H252" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -7402,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -7426,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -7439,10 +7513,10 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B272" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -7501,7 +7575,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B276">
         <v>10.958581208608772</v>
@@ -7519,12 +7593,12 @@
         <v>20</v>
       </c>
       <c r="H276" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B277">
         <v>0.45837082374932231</v>
@@ -7542,12 +7616,12 @@
         <v>21</v>
       </c>
       <c r="H277" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B278">
         <v>8.4482150228766919</v>
@@ -7565,7 +7639,7 @@
         <v>21</v>
       </c>
       <c r="H278" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -7688,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -7733,10 +7807,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B292" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -7798,7 +7872,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -7885,7 +7959,7 @@
         <v>21</v>
       </c>
       <c r="J299" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -8152,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -8160,7 +8234,7 @@
         <v>2</v>
       </c>
       <c r="B313" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -8176,7 +8250,7 @@
         <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -8189,10 +8263,10 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B317" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -8248,7 +8322,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B321">
         <v>15.488183266908818</v>
@@ -8266,12 +8340,12 @@
         <v>20</v>
       </c>
       <c r="H321" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B322">
         <v>0.2742242079835131</v>
@@ -8289,12 +8363,12 @@
         <v>21</v>
       </c>
       <c r="H322" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B323">
         <v>13.162761983208627</v>
@@ -8458,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -8482,7 +8556,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -8495,10 +8569,10 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B336" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -8574,7 +8648,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -8592,7 +8666,7 @@
         <v>20</v>
       </c>
       <c r="H341" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
@@ -8876,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -8900,7 +8974,7 @@
         <v>7</v>
       </c>
       <c r="B358" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -8913,10 +8987,10 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B360" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="361" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8992,7 +9066,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B365">
         <v>2.5700000000000001E-2</v>
@@ -9052,7 +9126,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -9070,7 +9144,7 @@
         <v>20</v>
       </c>
       <c r="H368" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -9239,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
@@ -9247,7 +9321,7 @@
         <v>2</v>
       </c>
       <c r="B378" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -9263,7 +9337,7 @@
         <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
@@ -9276,10 +9350,10 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B382" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="383" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9325,7 +9399,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B385">
         <v>3.7399999999999999E-7</v>
@@ -9345,7 +9419,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B386">
         <v>9.3699999999999999E-3</v>
@@ -9365,7 +9439,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B387">
         <v>1.5999999999999999E-5</v>
@@ -9385,7 +9459,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -9403,7 +9477,7 @@
         <v>20</v>
       </c>
       <c r="H388" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -9477,7 +9551,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B392">
         <v>-4.7199999999999998E-4</v>
@@ -9495,7 +9569,7 @@
         <v>21</v>
       </c>
       <c r="H392" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
@@ -9503,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -9549,10 +9623,10 @@
     </row>
     <row r="399" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B399" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="C399"/>
       <c r="D399"/>
@@ -9639,7 +9713,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B403">
         <v>2.2000000000000002</v>
@@ -9780,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -9804,7 +9878,7 @@
         <v>7</v>
       </c>
       <c r="B413" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -9817,10 +9891,10 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B415" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="416" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9853,7 +9927,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -9871,12 +9945,12 @@
         <v>20</v>
       </c>
       <c r="G418" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B419">
         <v>0.13180285392336399</v>
@@ -9894,7 +9968,7 @@
         <v>21</v>
       </c>
       <c r="G419" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -9994,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -10018,7 +10092,7 @@
         <v>7</v>
       </c>
       <c r="B428" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -10034,7 +10108,7 @@
         <v>3</v>
       </c>
       <c r="B430" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -10042,15 +10116,15 @@
         <v>8</v>
       </c>
       <c r="B431" t="s">
-        <v>725</v>
+        <v>9</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B432" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
@@ -10093,7 +10167,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -10105,21 +10179,22 @@
         <v>5</v>
       </c>
       <c r="E435" t="s">
-        <v>725</v>
+        <v>9</v>
       </c>
       <c r="F435" t="s">
         <v>20</v>
       </c>
       <c r="G435" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B436">
-        <v>8.5612534146253996E-3</v>
+        <f>(1/0.0562)*0.0085612534146254</f>
+        <v>0.1523354700111281</v>
       </c>
       <c r="C436" t="s">
         <v>723</v>
@@ -10134,15 +10209,19 @@
         <v>21</v>
       </c>
       <c r="G436" t="s">
-        <v>827</v>
+        <v>826</v>
+      </c>
+      <c r="H436" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B437">
-        <v>1.6562049113719404E-2</v>
+        <f>(1/0.0562)*0.0165620491137194</f>
+        <v>0.29469838280639504</v>
       </c>
       <c r="C437" t="s">
         <v>723</v>
@@ -10157,15 +10236,16 @@
         <v>21</v>
       </c>
       <c r="G437" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B438">
-        <v>2.0997769886857812E-2</v>
+        <f>(1/0.0562)*0.0209977698868578</f>
+        <v>0.37362579869853735</v>
       </c>
       <c r="C438" t="s">
         <v>723</v>
@@ -10180,15 +10260,16 @@
         <v>21</v>
       </c>
       <c r="G438" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B439">
-        <v>9.2525269473796579E-3</v>
+        <f>(1/0.0562)*0.00925252694737966</f>
+        <v>0.16463571080746725</v>
       </c>
       <c r="C439" t="s">
         <v>723</v>
@@ -10203,7 +10284,7 @@
         <v>21</v>
       </c>
       <c r="G439" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
@@ -10211,7 +10292,8 @@
         <v>96</v>
       </c>
       <c r="B440">
-        <v>8.0303085969569542E-4</v>
+        <f>(1/0.0562)*0.000803030859695695</f>
+        <v>1.4288805332663612E-2</v>
       </c>
       <c r="C440" t="s">
         <v>724</v>
@@ -10234,7 +10316,8 @@
         <v>27</v>
       </c>
       <c r="B441">
-        <v>0.10377487649496708</v>
+        <f>(1/0.0562)*0.103774876494967</f>
+        <v>1.8465280515118683</v>
       </c>
       <c r="C441" t="s">
         <v>724</v>
@@ -10257,7 +10340,8 @@
         <v>27</v>
       </c>
       <c r="B442">
-        <v>0.13397232470596393</v>
+        <f>(1/0.0562)*0.133972324705964</f>
+        <v>2.3838491940562991</v>
       </c>
       <c r="C442" t="s">
         <v>724</v>
@@ -10280,7 +10364,7 @@
         <v>1</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
@@ -10304,7 +10388,7 @@
         <v>7</v>
       </c>
       <c r="B447" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
@@ -10320,7 +10404,7 @@
         <v>3</v>
       </c>
       <c r="B449" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
@@ -10328,15 +10412,15 @@
         <v>8</v>
       </c>
       <c r="B450" t="s">
-        <v>725</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B451" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
@@ -10369,7 +10453,7 @@
     </row>
     <row r="454" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -10381,13 +10465,13 @@
         <v>5</v>
       </c>
       <c r="E454" t="s">
-        <v>725</v>
+        <v>9</v>
       </c>
       <c r="F454" t="s">
         <v>20</v>
       </c>
       <c r="G454" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H454"/>
       <c r="I454"/>
@@ -10396,10 +10480,11 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B455">
-        <v>8.5612534146253996E-3</v>
+        <f>(1/0.053177)*0.0085612534146254</f>
+        <v>0.1609954193471877</v>
       </c>
       <c r="C455" t="s">
         <v>723</v>
@@ -10414,15 +10499,19 @@
         <v>21</v>
       </c>
       <c r="G455" t="s">
-        <v>827</v>
+        <v>826</v>
+      </c>
+      <c r="H455" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B456">
-        <v>1.3018168247328599E-2</v>
+        <f>(1/0.053177)*0.0130181682473286</f>
+        <v>0.24480824881675539</v>
       </c>
       <c r="C456" t="s">
         <v>723</v>
@@ -10437,15 +10526,16 @@
         <v>21</v>
       </c>
       <c r="G456" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B457">
-        <v>2.1612062241046354E-2</v>
+        <f>(1/0.053177)*0.0216120622410464</f>
+        <v>0.40641747825274838</v>
       </c>
       <c r="C457" t="s">
         <v>723</v>
@@ -10460,15 +10550,16 @@
         <v>21</v>
       </c>
       <c r="G457" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B458">
-        <v>9.3439768250700942E-3</v>
+        <f>(1/0.053177)*0.00934397682507009</f>
+        <v>0.17571462897625084</v>
       </c>
       <c r="C458" t="s">
         <v>723</v>
@@ -10483,7 +10574,7 @@
         <v>21</v>
       </c>
       <c r="G458" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
@@ -10491,7 +10582,8 @@
         <v>96</v>
       </c>
       <c r="B459">
-        <v>6.4201000801097571E-4</v>
+        <f>(1/0.053177)*0.000642010008010976</f>
+        <v>1.2073076856742127E-2</v>
       </c>
       <c r="C459" t="s">
         <v>724</v>
@@ -10514,7 +10606,8 @@
         <v>27</v>
       </c>
       <c r="B460">
-        <v>0.10480056383603367</v>
+        <f>(1/0.053177)*0.104800563836034</f>
+        <v>1.9707874426168082</v>
       </c>
       <c r="C460" t="s">
         <v>724</v>
@@ -10537,7 +10630,8 @@
         <v>27</v>
       </c>
       <c r="B461">
-        <v>0.12593821871969096</v>
+        <f>(1/0.053177)*0.125938218719691</f>
+        <v>2.3682836323916541</v>
       </c>
       <c r="C461" t="s">
         <v>724</v>
@@ -10560,7 +10654,7 @@
         <v>1</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
@@ -10584,7 +10678,7 @@
         <v>7</v>
       </c>
       <c r="B466" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
@@ -10600,7 +10694,7 @@
         <v>3</v>
       </c>
       <c r="B468" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
@@ -10608,15 +10702,15 @@
         <v>8</v>
       </c>
       <c r="B469" t="s">
-        <v>725</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B470" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
@@ -10656,10 +10750,13 @@
       <c r="G472" t="s">
         <v>7</v>
       </c>
+      <c r="H472" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -10671,21 +10768,22 @@
         <v>5</v>
       </c>
       <c r="E473" t="s">
-        <v>725</v>
+        <v>9</v>
       </c>
       <c r="F473" t="s">
         <v>20</v>
       </c>
       <c r="G473" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B474">
-        <v>8.5612534146253996E-3</v>
+        <f>(1/0.045)*0.0085612534146254</f>
+        <v>0.19025007588056442</v>
       </c>
       <c r="C474" t="s">
         <v>723</v>
@@ -10700,15 +10798,19 @@
         <v>21</v>
       </c>
       <c r="G474" t="s">
-        <v>827</v>
+        <v>826</v>
+      </c>
+      <c r="H474" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B475">
-        <v>1.0958581208608771E-2</v>
+        <f>(1/0.045)*0.0109585812086088</f>
+        <v>0.24352402685797334</v>
       </c>
       <c r="C475" t="s">
         <v>723</v>
@@ -10723,15 +10825,19 @@
         <v>21</v>
       </c>
       <c r="G475" t="s">
-        <v>852</v>
+        <v>851</v>
+      </c>
+      <c r="H475" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B476">
-        <v>1.5488183266908819E-2</v>
+        <f>(1/0.045)*0.0154881832669088</f>
+        <v>0.34418185037575111</v>
       </c>
       <c r="C476" t="s">
         <v>723</v>
@@ -10746,15 +10852,19 @@
         <v>21</v>
       </c>
       <c r="G476" t="s">
-        <v>855</v>
+        <v>854</v>
+      </c>
+      <c r="H476" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B477">
-        <v>9.3722358760555593E-3</v>
+        <f>(1/0.045)*0.00937223587605556</f>
+        <v>0.20827190835679019</v>
       </c>
       <c r="C477" t="s">
         <v>723</v>
@@ -10769,7 +10879,10 @@
         <v>21</v>
       </c>
       <c r="G477" t="s">
-        <v>862</v>
+        <v>861</v>
+      </c>
+      <c r="H477" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -10777,7 +10890,8 @@
         <v>96</v>
       </c>
       <c r="B478">
-        <v>5.9232428924438818E-4</v>
+        <f>(1/0.045)*0.000592324289244388</f>
+        <v>1.3162761983208621E-2</v>
       </c>
       <c r="C478" t="s">
         <v>724</v>
@@ -10793,6 +10907,9 @@
       </c>
       <c r="G478" t="s">
         <v>199</v>
+      </c>
+      <c r="H478" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -10800,7 +10917,8 @@
         <v>27</v>
       </c>
       <c r="B479">
-        <v>0.10511751287520531</v>
+        <f>(1/0.045)*0.105117512875205</f>
+        <v>2.3359447305601111</v>
       </c>
       <c r="C479" t="s">
         <v>724</v>
@@ -10816,6 +10934,9 @@
       </c>
       <c r="G479" t="s">
         <v>67</v>
+      </c>
+      <c r="H479" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -10823,7 +10944,8 @@
         <v>27</v>
       </c>
       <c r="B480">
-        <v>9.3614840455587864E-2</v>
+        <f>(1/0.045)*0.0936148404555879</f>
+        <v>2.0803297879019533</v>
       </c>
       <c r="C480" t="s">
         <v>724</v>
@@ -10839,6 +10961,9 @@
       </c>
       <c r="G480" t="s">
         <v>67</v>
+      </c>
+      <c r="H480" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -10846,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -10862,7 +10987,7 @@
         <v>3</v>
       </c>
       <c r="B484" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -10878,7 +11003,7 @@
         <v>7</v>
       </c>
       <c r="B486" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -10899,10 +11024,10 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B489" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -11038,7 +11163,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -11056,7 +11181,7 @@
         <v>20</v>
       </c>
       <c r="H497" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -11102,7 +11227,7 @@
         <v>21</v>
       </c>
       <c r="H499" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -11125,7 +11250,7 @@
         <v>21</v>
       </c>
       <c r="H500" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -11360,7 +11485,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B511">
         <v>1.35</v>
@@ -11378,7 +11503,7 @@
         <v>21</v>
       </c>
       <c r="H511" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="513" spans="1:20" x14ac:dyDescent="0.25">
@@ -11386,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="514" spans="1:20" x14ac:dyDescent="0.25">
@@ -11418,7 +11543,7 @@
         <v>7</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="518" spans="1:20" x14ac:dyDescent="0.25">
@@ -11431,10 +11556,10 @@
     </row>
     <row r="519" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B519" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="520" spans="1:20" x14ac:dyDescent="0.25">
@@ -11594,7 +11719,7 @@
     </row>
     <row r="524" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B524">
         <v>2.7386127875258301E-8</v>
@@ -11638,7 +11763,7 @@
     </row>
     <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B525">
         <v>1.3868418961177301E-7</v>
@@ -11767,7 +11892,7 @@
     </row>
     <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B528">
         <v>4.1149999999999997E-5</v>
@@ -11811,7 +11936,7 @@
     </row>
     <row r="529" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B529">
         <v>4.08166632639171E-7</v>
@@ -11855,7 +11980,7 @@
     </row>
     <row r="530" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B530">
         <v>6.8410525505948304E-7</v>
@@ -11984,7 +12109,7 @@
     </row>
     <row r="533" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B533">
         <v>4.47437146423942E-5</v>
@@ -12113,7 +12238,7 @@
     </row>
     <row r="536" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -12122,7 +12247,7 @@
         <v>723</v>
       </c>
       <c r="D536" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E536" t="s">
         <v>95</v>
@@ -12160,7 +12285,7 @@
         <v>724</v>
       </c>
       <c r="D537" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E537" t="s">
         <v>23</v>
@@ -12183,7 +12308,7 @@
         <v>724</v>
       </c>
       <c r="D538" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E538" t="s">
         <v>65</v>
@@ -12206,7 +12331,7 @@
         <v>724</v>
       </c>
       <c r="D539" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E539" t="s">
         <v>253</v>
@@ -12253,7 +12378,7 @@
         <v>724</v>
       </c>
       <c r="D540" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E540" t="s">
         <v>65</v>
@@ -12300,7 +12425,7 @@
         <v>724</v>
       </c>
       <c r="D541" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E541" t="s">
         <v>65</v>
@@ -12347,7 +12472,7 @@
         <v>724</v>
       </c>
       <c r="D542" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E542" t="s">
         <v>65</v>
@@ -12394,7 +12519,7 @@
         <v>724</v>
       </c>
       <c r="D543" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E543" t="s">
         <v>65</v>
@@ -12441,7 +12566,7 @@
         <v>724</v>
       </c>
       <c r="D544" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E544" t="s">
         <v>23</v>
@@ -12488,7 +12613,7 @@
         <v>724</v>
       </c>
       <c r="D545" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E545" t="s">
         <v>65</v>
@@ -12535,7 +12660,7 @@
         <v>724</v>
       </c>
       <c r="D546" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E546" t="s">
         <v>23</v>
@@ -12582,7 +12707,7 @@
         <v>724</v>
       </c>
       <c r="D547" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E547" t="s">
         <v>65</v>
@@ -12629,7 +12754,7 @@
         <v>724</v>
       </c>
       <c r="D548" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E548" t="s">
         <v>65</v>
@@ -12676,7 +12801,7 @@
         <v>724</v>
       </c>
       <c r="D549" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E549" t="s">
         <v>65</v>
@@ -12723,7 +12848,7 @@
         <v>724</v>
       </c>
       <c r="D550" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E550" t="s">
         <v>65</v>
@@ -12839,7 +12964,7 @@
         <v>724</v>
       </c>
       <c r="D554" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E554" t="s">
         <v>65</v>
@@ -12900,7 +13025,7 @@
     </row>
     <row r="556" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B556">
         <v>0.86</v>
@@ -12909,7 +13034,7 @@
         <v>723</v>
       </c>
       <c r="D556" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E556" t="s">
         <v>95</v>
@@ -12926,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="559" spans="1:20" x14ac:dyDescent="0.25">
@@ -12958,7 +13083,7 @@
         <v>7</v>
       </c>
       <c r="B562" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="563" spans="1:20" x14ac:dyDescent="0.25">
@@ -12971,10 +13096,10 @@
     </row>
     <row r="564" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B564" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="565" spans="1:20" x14ac:dyDescent="0.25">
@@ -13128,7 +13253,7 @@
     </row>
     <row r="569" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B569">
         <v>3.6500000000000003E-8</v>
@@ -13210,7 +13335,7 @@
     </row>
     <row r="571" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B571">
         <v>1.254E-6</v>
@@ -13251,7 +13376,7 @@
     </row>
     <row r="572" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B572">
         <v>2.3050000000000001E-7</v>
@@ -13371,7 +13496,7 @@
     </row>
     <row r="575" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B575">
         <v>5.2000000000000002E-6</v>
@@ -13453,7 +13578,7 @@
     </row>
     <row r="577" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B577">
         <v>1.8080000000000001E-6</v>
@@ -13494,7 +13619,7 @@
     </row>
     <row r="578" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B578">
         <v>2.238E-6</v>
@@ -13535,7 +13660,7 @@
     </row>
     <row r="579" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B579">
         <v>7.0050000000000001E-7</v>
@@ -13655,7 +13780,7 @@
     </row>
     <row r="582" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B582">
         <v>1.6595999999999999E-4</v>
@@ -13693,7 +13818,7 @@
     </row>
     <row r="583" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B583">
         <v>5.8575000000000001E-5</v>
@@ -13731,7 +13856,7 @@
     </row>
     <row r="584" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B584">
         <v>1.6595999999999999E-4</v>
@@ -13980,7 +14105,7 @@
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B590">
         <v>2.2940000000000001E-5</v>
@@ -14021,7 +14146,7 @@
     </row>
     <row r="591" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B591">
         <v>1.32</v>
@@ -14030,7 +14155,7 @@
         <v>723</v>
       </c>
       <c r="D591" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E591" t="s">
         <v>144</v>
@@ -14071,7 +14196,7 @@
         <v>724</v>
       </c>
       <c r="D592" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E592" t="s">
         <v>23</v>
@@ -14118,7 +14243,7 @@
         <v>724</v>
       </c>
       <c r="D593" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E593" t="s">
         <v>23</v>
@@ -14165,7 +14290,7 @@
         <v>724</v>
       </c>
       <c r="D594" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E594" t="s">
         <v>65</v>
@@ -14212,7 +14337,7 @@
         <v>724</v>
       </c>
       <c r="D595" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E595" t="s">
         <v>65</v>
@@ -14282,7 +14407,7 @@
         <v>724</v>
       </c>
       <c r="D597" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E597" t="s">
         <v>144</v>
@@ -14329,7 +14454,7 @@
         <v>724</v>
       </c>
       <c r="D598" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E598" t="s">
         <v>65</v>
@@ -14376,7 +14501,7 @@
         <v>724</v>
       </c>
       <c r="D599" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E599" t="s">
         <v>65</v>
@@ -14423,7 +14548,7 @@
         <v>724</v>
       </c>
       <c r="D600" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E600" t="s">
         <v>65</v>
@@ -14470,7 +14595,7 @@
         <v>724</v>
       </c>
       <c r="D601" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E601" t="s">
         <v>65</v>
@@ -14517,7 +14642,7 @@
         <v>724</v>
       </c>
       <c r="D602" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E602" t="s">
         <v>65</v>
@@ -14564,7 +14689,7 @@
         <v>724</v>
       </c>
       <c r="D603" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E603" t="s">
         <v>23</v>
@@ -14602,7 +14727,7 @@
     </row>
     <row r="604" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B604">
         <v>1.46</v>
@@ -14628,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="607" spans="1:20" x14ac:dyDescent="0.25">
@@ -14652,7 +14777,7 @@
         <v>7</v>
       </c>
       <c r="B609" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="610" spans="1:20" x14ac:dyDescent="0.25">
@@ -14673,10 +14798,10 @@
     </row>
     <row r="612" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B612" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="613" spans="1:20" x14ac:dyDescent="0.25">
@@ -14709,7 +14834,7 @@
     </row>
     <row r="615" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B615">
         <v>1.9265250000000001E-2</v>
@@ -14718,7 +14843,7 @@
         <v>723</v>
       </c>
       <c r="D615" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E615" t="s">
         <v>95</v>
@@ -14732,7 +14857,7 @@
     </row>
     <row r="616" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B616">
         <v>0.36707802470940898</v>
@@ -14741,7 +14866,7 @@
         <v>723</v>
       </c>
       <c r="D616" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E616" t="s">
         <v>95</v>
@@ -14758,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="619" spans="1:20" x14ac:dyDescent="0.25">
@@ -14800,7 +14925,7 @@
         <v>7</v>
       </c>
       <c r="B621" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="622" spans="1:20" x14ac:dyDescent="0.25">
@@ -14821,10 +14946,10 @@
     </row>
     <row r="624" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>895</v>
+      </c>
+      <c r="B624" t="s">
         <v>896</v>
-      </c>
-      <c r="B624" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="625" spans="1:20" x14ac:dyDescent="0.25">
@@ -14857,7 +14982,7 @@
     </row>
     <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -14866,7 +14991,7 @@
         <v>723</v>
       </c>
       <c r="D627" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E627" t="s">
         <v>23</v>
@@ -14880,7 +15005,7 @@
     </row>
     <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B628">
         <v>0.11</v>
@@ -14889,7 +15014,7 @@
         <v>723</v>
       </c>
       <c r="D628" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E628" t="s">
         <v>144</v>
@@ -14903,7 +15028,7 @@
     </row>
     <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B629">
         <v>0.89</v>
@@ -14912,7 +15037,7 @@
         <v>723</v>
       </c>
       <c r="D629" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E629" t="s">
         <v>95</v>
@@ -14929,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="632" spans="1:20" x14ac:dyDescent="0.25">
@@ -14953,7 +15078,7 @@
         <v>7</v>
       </c>
       <c r="B634" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="635" spans="1:20" x14ac:dyDescent="0.25">
@@ -14974,10 +15099,10 @@
     </row>
     <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B637" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="638" spans="1:20" x14ac:dyDescent="0.25">
@@ -15132,7 +15257,7 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B645">
         <v>0.13861725499999999</v>
@@ -15150,12 +15275,12 @@
         <v>20</v>
       </c>
       <c r="H645" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B646">
         <v>9.0939999999999993E-2</v>
@@ -15173,7 +15298,7 @@
         <v>21</v>
       </c>
       <c r="H646" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
@@ -15388,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="659" spans="1:20" x14ac:dyDescent="0.25">
@@ -15420,7 +15545,7 @@
         <v>7</v>
       </c>
       <c r="B662" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="663" spans="1:20" x14ac:dyDescent="0.25">
@@ -15433,10 +15558,10 @@
     </row>
     <row r="664" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B664" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="665" spans="1:20" x14ac:dyDescent="0.25">
@@ -15508,7 +15633,7 @@
     </row>
     <row r="667" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B667">
         <v>1.902E-10</v>
@@ -15552,7 +15677,7 @@
     </row>
     <row r="668" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B668">
         <v>9.5090000000000005E-11</v>
@@ -15684,7 +15809,7 @@
     </row>
     <row r="671" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B671">
         <v>1.521E-9</v>
@@ -15728,7 +15853,7 @@
     </row>
     <row r="672" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B672">
         <v>1.902E-10</v>
@@ -15772,7 +15897,7 @@
     </row>
     <row r="673" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B673">
         <v>1.902E-10</v>
@@ -15860,7 +15985,7 @@
     </row>
     <row r="675" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B675">
         <v>6.0700000000000003E-6</v>
@@ -15948,7 +16073,7 @@
     </row>
     <row r="677" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B677">
         <v>3.6160000000000001E-7</v>
@@ -15992,7 +16117,7 @@
     </row>
     <row r="678" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B678">
         <v>1.902E-10</v>
@@ -16036,7 +16161,7 @@
     </row>
     <row r="679" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B679">
         <v>5.7049999999999998E-8</v>
@@ -16080,7 +16205,7 @@
     </row>
     <row r="680" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B680">
         <v>2.472E-11</v>
@@ -16124,7 +16249,7 @@
     </row>
     <row r="681" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B681">
         <v>3.0300000000000001E-9</v>
@@ -16212,7 +16337,7 @@
     </row>
     <row r="683" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B683">
         <v>1.287E-9</v>
@@ -16253,7 +16378,7 @@
     </row>
     <row r="684" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B684">
         <v>1.902E-10</v>
@@ -16385,7 +16510,7 @@
     </row>
     <row r="687" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B687">
         <v>1.039E-5</v>
@@ -16426,7 +16551,7 @@
     </row>
     <row r="688" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B688">
         <v>1.7960000000000001E-5</v>
@@ -16467,7 +16592,7 @@
     </row>
     <row r="689" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B689">
         <v>1.2310000000000001E-5</v>
@@ -16552,7 +16677,7 @@
     </row>
     <row r="691" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B691">
         <v>1.73E-9</v>
@@ -16769,7 +16894,7 @@
     </row>
     <row r="696" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B696">
         <v>7.6069999999999997E-10</v>
@@ -16813,7 +16938,7 @@
     </row>
     <row r="697" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -16822,7 +16947,7 @@
         <v>723</v>
       </c>
       <c r="D697" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E697" t="s">
         <v>95</v>
@@ -16863,7 +16988,7 @@
         <v>724</v>
       </c>
       <c r="D698" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E698" t="s">
         <v>23</v>
@@ -16910,7 +17035,7 @@
         <v>724</v>
       </c>
       <c r="D699" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E699" t="s">
         <v>23</v>
@@ -16957,7 +17082,7 @@
         <v>724</v>
       </c>
       <c r="D700" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E700" t="s">
         <v>95</v>
@@ -16980,7 +17105,7 @@
         <v>724</v>
       </c>
       <c r="D701" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E701" t="s">
         <v>65</v>
@@ -17027,7 +17152,7 @@
         <v>724</v>
       </c>
       <c r="D702" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E702" t="s">
         <v>65</v>
@@ -17121,7 +17246,7 @@
         <v>724</v>
       </c>
       <c r="D704" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E704" t="s">
         <v>23</v>
@@ -17215,7 +17340,7 @@
         <v>724</v>
       </c>
       <c r="D706" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E706" t="s">
         <v>65</v>
@@ -17285,7 +17410,7 @@
         <v>724</v>
       </c>
       <c r="D708" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E708" t="s">
         <v>65</v>
@@ -17349,7 +17474,7 @@
         <v>1</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="712" spans="1:20" x14ac:dyDescent="0.25">
@@ -17381,7 +17506,7 @@
         <v>7</v>
       </c>
       <c r="B715" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="716" spans="1:20" x14ac:dyDescent="0.25">
@@ -17402,10 +17527,10 @@
     </row>
     <row r="718" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B718" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="719" spans="1:20" x14ac:dyDescent="0.25">
@@ -17477,7 +17602,7 @@
     </row>
     <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B721">
         <v>3E-9</v>
@@ -17565,7 +17690,7 @@
     </row>
     <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B723">
         <v>7.4390859654000001E-9</v>
@@ -17697,7 +17822,7 @@
     </row>
     <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B726">
         <v>2.1221687021000001E-8</v>
@@ -17741,7 +17866,7 @@
     </row>
     <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B727">
         <v>3.3777951387999999E-8</v>
@@ -17829,7 +17954,7 @@
     </row>
     <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B729">
         <v>3.4447641429E-5</v>
@@ -17917,7 +18042,7 @@
     </row>
     <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B731">
         <v>3.8439214351999999E-7</v>
@@ -17961,7 +18086,7 @@
     </row>
     <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B732">
         <v>4.2824759194E-8</v>
@@ -18005,7 +18130,7 @@
     </row>
     <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B733">
         <v>4.5497252663999999E-9</v>
@@ -18093,7 +18218,7 @@
     </row>
     <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B735">
         <v>1.9782568084000002E-5</v>
@@ -18134,7 +18259,7 @@
     </row>
     <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B736">
         <v>1.5108937751999999E-8</v>
@@ -18307,7 +18432,7 @@
     </row>
     <row r="740" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B740">
         <v>1.20415E-4</v>
@@ -18342,7 +18467,7 @@
     </row>
     <row r="741" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B741">
         <v>9.3775800000000004E-5</v>
@@ -18383,7 +18508,7 @@
     </row>
     <row r="742" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B742">
         <v>1.9602500000000001E-5</v>
@@ -18465,7 +18590,7 @@
     </row>
     <row r="744" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B744">
         <v>5.1253292576999998E-8</v>
@@ -18553,7 +18678,7 @@
     </row>
     <row r="746" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B746">
         <v>6.5802735504999996E-9</v>
@@ -18597,7 +18722,7 @@
     </row>
     <row r="747" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B747">
         <v>9.7519228873000004E-9</v>
@@ -18685,7 +18810,7 @@
     </row>
     <row r="749" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -18694,7 +18819,7 @@
         <v>723</v>
       </c>
       <c r="D749" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E749" t="s">
         <v>95</v>
@@ -18732,7 +18857,7 @@
         <v>724</v>
       </c>
       <c r="D750" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E750" t="s">
         <v>65</v>
@@ -18778,7 +18903,7 @@
         <v>724</v>
       </c>
       <c r="D752" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E752" t="s">
         <v>23</v>
@@ -18825,7 +18950,7 @@
         <v>724</v>
       </c>
       <c r="D753" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E753" t="s">
         <v>95</v>
@@ -18848,7 +18973,7 @@
         <v>724</v>
       </c>
       <c r="D754" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E754" t="s">
         <v>65</v>
@@ -18871,7 +18996,7 @@
         <v>724</v>
       </c>
       <c r="D755" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E755" t="s">
         <v>65</v>
@@ -18894,7 +19019,7 @@
         <v>724</v>
       </c>
       <c r="D756" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E756" t="s">
         <v>61</v>
@@ -18941,7 +19066,7 @@
         <v>724</v>
       </c>
       <c r="D757" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E757" t="s">
         <v>489</v>
@@ -19011,7 +19136,7 @@
         <v>724</v>
       </c>
       <c r="D759" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E759" t="s">
         <v>65</v>
@@ -19104,10 +19229,10 @@
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B769" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.25">
@@ -19163,7 +19288,7 @@
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B773">
         <v>1.44E-2</v>
@@ -19410,7 +19535,7 @@
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B784">
         <v>-1.8</v>
@@ -19436,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="787" spans="1:20" x14ac:dyDescent="0.25">
@@ -19468,7 +19593,7 @@
         <v>7</v>
       </c>
       <c r="B790" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="791" spans="1:20" x14ac:dyDescent="0.25">
@@ -19481,10 +19606,10 @@
     </row>
     <row r="792" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B792" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="793" spans="1:20" x14ac:dyDescent="0.25">
@@ -19732,7 +19857,7 @@
     </row>
     <row r="799" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B799">
         <v>6.9149000000000006E-8</v>
@@ -19776,7 +19901,7 @@
     </row>
     <row r="800" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B800">
         <v>7.4468000000000002E-8</v>
@@ -19820,7 +19945,7 @@
     </row>
     <row r="801" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B801">
         <v>1.5956999999999999E-8</v>
@@ -19908,7 +20033,7 @@
     </row>
     <row r="803" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B803">
         <v>2.8722999999999999E-5</v>
@@ -19949,7 +20074,7 @@
     </row>
     <row r="804" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B804">
         <v>1.5957E-6</v>
@@ -19990,7 +20115,7 @@
     </row>
     <row r="805" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B805">
         <v>1.5957E-6</v>
@@ -20251,7 +20376,7 @@
     </row>
     <row r="811" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B811">
         <v>1</v>
@@ -20260,7 +20385,7 @@
         <v>723</v>
       </c>
       <c r="D811" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E811" t="s">
         <v>95</v>
@@ -20298,7 +20423,7 @@
         <v>724</v>
       </c>
       <c r="D812" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E812" t="s">
         <v>23</v>
@@ -20345,7 +20470,7 @@
         <v>724</v>
       </c>
       <c r="D813" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E813" t="s">
         <v>65</v>
@@ -20368,7 +20493,7 @@
         <v>724</v>
       </c>
       <c r="D814" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E814" t="s">
         <v>65</v>
@@ -20382,7 +20507,7 @@
     </row>
     <row r="815" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B815">
         <v>0.42399999999999999</v>
@@ -20391,7 +20516,7 @@
         <v>723</v>
       </c>
       <c r="D815" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E815" t="s">
         <v>95</v>
@@ -20405,7 +20530,7 @@
     </row>
     <row r="816" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B816">
         <v>1.59</v>
@@ -20414,7 +20539,7 @@
         <v>723</v>
       </c>
       <c r="D816" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E816" t="s">
         <v>95</v>
@@ -20437,7 +20562,7 @@
         <v>724</v>
       </c>
       <c r="D817" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E817" t="s">
         <v>23</v>
@@ -20484,7 +20609,7 @@
         <v>724</v>
       </c>
       <c r="D818" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E818" t="s">
         <v>95</v>
@@ -20531,7 +20656,7 @@
         <v>724</v>
       </c>
       <c r="D819" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E819" t="s">
         <v>65</v>
@@ -20578,7 +20703,7 @@
         <v>724</v>
       </c>
       <c r="D820" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E820" t="s">
         <v>23</v>
@@ -20601,7 +20726,7 @@
         <v>724</v>
       </c>
       <c r="D821" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E821" t="s">
         <v>23</v>
@@ -20624,7 +20749,7 @@
         <v>724</v>
       </c>
       <c r="D822" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E822" t="s">
         <v>23</v>
@@ -20671,7 +20796,7 @@
         <v>724</v>
       </c>
       <c r="D823" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E823" t="s">
         <v>65</v>
@@ -20712,7 +20837,7 @@
         <v>1</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="826" spans="1:20" x14ac:dyDescent="0.25">
@@ -20757,10 +20882,10 @@
     </row>
     <row r="831" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B831" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="832" spans="1:20" x14ac:dyDescent="0.25">
@@ -20832,7 +20957,7 @@
     </row>
     <row r="834" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B834">
         <v>2.0000000000000001E-13</v>
@@ -20876,7 +21001,7 @@
     </row>
     <row r="835" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B835">
         <v>2.1E-10</v>
@@ -20917,7 +21042,7 @@
     </row>
     <row r="836" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B836">
         <v>3.1000000000000001E-12</v>
@@ -21043,7 +21168,7 @@
     </row>
     <row r="839" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B839">
         <v>2.7000000000000002E-9</v>
@@ -21084,7 +21209,7 @@
     </row>
     <row r="840" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B840">
         <v>4.9600000000000002E-11</v>
@@ -21128,7 +21253,7 @@
     </row>
     <row r="841" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B841">
         <v>6.2000000000000002E-12</v>
@@ -21172,7 +21297,7 @@
     </row>
     <row r="842" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B842">
         <v>4.5999999999999998E-9</v>
@@ -21213,7 +21338,7 @@
     </row>
     <row r="843" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B843">
         <v>6.2000000000000002E-12</v>
@@ -21380,7 +21505,7 @@
     </row>
     <row r="847" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B847">
         <v>2.5000000000000001E-5</v>
@@ -21506,7 +21631,7 @@
     </row>
     <row r="850" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B850">
         <v>6.6063256317524603E-9</v>
@@ -21550,7 +21675,7 @@
     </row>
     <row r="851" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B851">
         <v>6.6500000000000007E-8</v>
@@ -21591,7 +21716,7 @@
     </row>
     <row r="852" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B852">
         <v>3.4748980507724499E-12</v>
@@ -21635,7 +21760,7 @@
     </row>
     <row r="853" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B853">
         <v>1.86E-9</v>
@@ -21679,7 +21804,7 @@
     </row>
     <row r="854" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B854">
         <v>2.3000000000000001E-8</v>
@@ -21720,7 +21845,7 @@
     </row>
     <row r="855" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B855">
         <v>5.5357208695270903E-11</v>
@@ -21764,7 +21889,7 @@
     </row>
     <row r="856" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B856">
         <v>2.5000000000000002E-10</v>
@@ -21805,7 +21930,7 @@
     </row>
     <row r="857" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B857">
         <v>4.5162712836537899E-13</v>
@@ -21893,7 +22018,7 @@
     </row>
     <row r="859" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B859">
         <v>4.1999999999999997E-11</v>
@@ -21934,7 +22059,7 @@
     </row>
     <row r="860" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B860">
         <v>1.4999999999999999E-8</v>
@@ -21975,7 +22100,7 @@
     </row>
     <row r="861" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B861">
         <v>3.4748980507724499E-12</v>
@@ -22186,7 +22311,7 @@
     </row>
     <row r="866" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B866">
         <v>7.4999999999999993E-5</v>
@@ -22224,7 +22349,7 @@
     </row>
     <row r="867" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B867">
         <v>1.8982224367784301E-7</v>
@@ -22265,7 +22390,7 @@
     </row>
     <row r="868" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B868">
         <v>3.2812391688682001E-7</v>
@@ -22306,7 +22431,7 @@
     </row>
     <row r="869" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B869">
         <v>2.2490007889068799E-7</v>
@@ -22391,7 +22516,7 @@
     </row>
     <row r="871" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B871">
         <v>3.1606591103240501E-11</v>
@@ -22561,7 +22686,7 @@
     </row>
     <row r="875" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B875">
         <v>8.5500000000000005E-8</v>
@@ -22725,7 +22850,7 @@
     </row>
     <row r="879" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B879">
         <v>5.62E-8</v>
@@ -22766,7 +22891,7 @@
     </row>
     <row r="880" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B880">
         <v>1.38977652325058E-11</v>
@@ -22810,7 +22935,7 @@
     </row>
     <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B881">
         <v>1.46</v>
@@ -22860,7 +22985,7 @@
         <v>724</v>
       </c>
       <c r="D882" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E882" t="s">
         <v>65</v>
@@ -22907,7 +23032,7 @@
         <v>724</v>
       </c>
       <c r="D883" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E883" t="s">
         <v>23</v>
@@ -22954,7 +23079,7 @@
         <v>724</v>
       </c>
       <c r="D884" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E884" t="s">
         <v>23</v>
@@ -23001,7 +23126,7 @@
         <v>724</v>
       </c>
       <c r="D885" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E885" t="s">
         <v>23</v>
@@ -23048,7 +23173,7 @@
         <v>724</v>
       </c>
       <c r="D886" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E886" t="s">
         <v>65</v>
@@ -23071,7 +23196,7 @@
         <v>724</v>
       </c>
       <c r="D887" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E887" t="s">
         <v>144</v>
@@ -23117,7 +23242,7 @@
         <v>724</v>
       </c>
       <c r="D889" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E889" t="s">
         <v>144</v>
@@ -23211,7 +23336,7 @@
         <v>724</v>
       </c>
       <c r="D891" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E891" t="s">
         <v>65</v>
@@ -23234,7 +23359,7 @@
         <v>724</v>
       </c>
       <c r="D892" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E892" t="s">
         <v>65</v>
@@ -23257,7 +23382,7 @@
         <v>724</v>
       </c>
       <c r="D893" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E893" t="s">
         <v>65</v>
@@ -23327,7 +23452,7 @@
         <v>724</v>
       </c>
       <c r="D895" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E895" t="s">
         <v>23</v>
@@ -23468,7 +23593,7 @@
         <v>724</v>
       </c>
       <c r="D898" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E898" t="s">
         <v>23</v>
@@ -23515,7 +23640,7 @@
         <v>724</v>
       </c>
       <c r="D899" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E899" t="s">
         <v>65</v>
@@ -23562,7 +23687,7 @@
         <v>724</v>
       </c>
       <c r="D900" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E900" t="s">
         <v>489</v>
@@ -23609,7 +23734,7 @@
         <v>724</v>
       </c>
       <c r="D901" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E901" t="s">
         <v>61</v>
@@ -23647,7 +23772,7 @@
     </row>
     <row r="902" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B902">
         <v>1.53</v>
@@ -23656,7 +23781,7 @@
         <v>723</v>
       </c>
       <c r="D902" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E902" t="s">
         <v>144</v>
@@ -23673,7 +23798,7 @@
         <v>1</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="905" spans="1:20" x14ac:dyDescent="0.25">
@@ -23713,7 +23838,7 @@
         <v>7</v>
       </c>
       <c r="B909" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="910" spans="1:20" x14ac:dyDescent="0.25">
@@ -23726,10 +23851,10 @@
     </row>
     <row r="911" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B911" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="912" spans="1:20" x14ac:dyDescent="0.25">
@@ -23801,7 +23926,7 @@
     </row>
     <row r="914" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B914">
         <v>1.08</v>
@@ -23862,7 +23987,7 @@
     </row>
     <row r="916" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B916">
         <v>1.77E-5</v>
@@ -23903,7 +24028,7 @@
     </row>
     <row r="917" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B917">
         <v>2.3699999999999999E-4</v>
@@ -23944,7 +24069,7 @@
     </row>
     <row r="918" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B918">
         <v>9.5699999999999995E-5</v>
@@ -23985,7 +24110,7 @@
     </row>
     <row r="919" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B919">
         <v>0.25</v>
@@ -24245,7 +24370,7 @@
     </row>
     <row r="926" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B926">
         <v>1.53</v>
@@ -24254,7 +24379,7 @@
         <v>723</v>
       </c>
       <c r="D926" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E926" t="s">
         <v>144</v>
@@ -24292,7 +24417,7 @@
         <v>724</v>
       </c>
       <c r="D927" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E927" t="s">
         <v>23</v>
@@ -24315,7 +24440,7 @@
         <v>724</v>
       </c>
       <c r="D928" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E928" t="s">
         <v>23</v>
@@ -24362,7 +24487,7 @@
         <v>724</v>
       </c>
       <c r="D929" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E929" t="s">
         <v>23</v>
@@ -24409,7 +24534,7 @@
         <v>724</v>
       </c>
       <c r="D930" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E930" t="s">
         <v>23</v>
@@ -24479,7 +24604,7 @@
         <v>724</v>
       </c>
       <c r="D932" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E932" t="s">
         <v>65</v>
@@ -24526,7 +24651,7 @@
         <v>724</v>
       </c>
       <c r="D933" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E933" t="s">
         <v>23</v>
@@ -24573,7 +24698,7 @@
         <v>724</v>
       </c>
       <c r="D934" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E934" t="s">
         <v>65</v>
@@ -24620,7 +24745,7 @@
         <v>724</v>
       </c>
       <c r="D935" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E935" t="s">
         <v>23</v>
@@ -24708,7 +24833,7 @@
         <v>1</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="939" spans="1:20" x14ac:dyDescent="0.25">
@@ -24740,7 +24865,7 @@
         <v>7</v>
       </c>
       <c r="B942" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="943" spans="1:20" x14ac:dyDescent="0.25">
@@ -24753,10 +24878,10 @@
     </row>
     <row r="944" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B944" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="945" spans="1:21" x14ac:dyDescent="0.25">
@@ -24972,7 +25097,7 @@
     </row>
     <row r="950" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B950">
         <v>3.6500000000000003E-8</v>
@@ -25113,7 +25238,7 @@
     </row>
     <row r="953" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B953">
         <v>1.2500000000000001E-6</v>
@@ -25207,7 +25332,7 @@
     </row>
     <row r="955" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B955">
         <v>2.3099999999999999E-7</v>
@@ -25342,7 +25467,7 @@
     </row>
     <row r="958" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B958">
         <v>5.2000000000000002E-6</v>
@@ -25436,7 +25561,7 @@
     </row>
     <row r="960" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B960">
         <v>1.81E-6</v>
@@ -25483,7 +25608,7 @@
     </row>
     <row r="961" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B961">
         <v>2.2400000000000002E-6</v>
@@ -25530,7 +25655,7 @@
     </row>
     <row r="962" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B962">
         <v>7.0100000000000004E-7</v>
@@ -25665,7 +25790,7 @@
     </row>
     <row r="965" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B965">
         <v>1.7000000000000001E-4</v>
@@ -25706,7 +25831,7 @@
     </row>
     <row r="966" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B966">
         <v>5.8600000000000001E-5</v>
@@ -25747,7 +25872,7 @@
     </row>
     <row r="967" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B967">
         <v>1.7000000000000001E-4</v>
@@ -25788,7 +25913,7 @@
     </row>
     <row r="968" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B968">
         <v>1.7000000000000001E-4</v>
@@ -26051,7 +26176,7 @@
     </row>
     <row r="975" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B975">
         <v>2.2900000000000001E-5</v>
@@ -26098,7 +26223,7 @@
     </row>
     <row r="976" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B976">
         <v>0.1226</v>
@@ -26107,7 +26232,7 @@
         <v>723</v>
       </c>
       <c r="D976" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E976" t="s">
         <v>144</v>
@@ -26136,7 +26261,7 @@
     </row>
     <row r="977" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B977">
         <v>1.32</v>
@@ -26145,7 +26270,7 @@
         <v>723</v>
       </c>
       <c r="D977" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E977" t="s">
         <v>144</v>
@@ -26168,7 +26293,7 @@
         <v>724</v>
       </c>
       <c r="D978" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E978" t="s">
         <v>23</v>
@@ -26215,7 +26340,7 @@
         <v>724</v>
       </c>
       <c r="D979" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E979" t="s">
         <v>23</v>
@@ -26262,7 +26387,7 @@
         <v>724</v>
       </c>
       <c r="D980" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E980" t="s">
         <v>65</v>
@@ -26309,7 +26434,7 @@
         <v>724</v>
       </c>
       <c r="D981" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E981" t="s">
         <v>23</v>
@@ -26356,7 +26481,7 @@
         <v>724</v>
       </c>
       <c r="D982" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E982" t="s">
         <v>23</v>
@@ -26403,7 +26528,7 @@
         <v>724</v>
       </c>
       <c r="D983" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E983" t="s">
         <v>23</v>
@@ -26450,7 +26575,7 @@
         <v>724</v>
       </c>
       <c r="D984" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E984" t="s">
         <v>65</v>
@@ -26497,7 +26622,7 @@
         <v>724</v>
       </c>
       <c r="D985" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E985" t="s">
         <v>65</v>
@@ -26544,7 +26669,7 @@
         <v>724</v>
       </c>
       <c r="D986" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E986" t="s">
         <v>144</v>
@@ -26590,7 +26715,7 @@
         <v>724</v>
       </c>
       <c r="D988" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E988" t="s">
         <v>23</v>
@@ -26637,7 +26762,7 @@
         <v>724</v>
       </c>
       <c r="D989" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E989" t="s">
         <v>23</v>
@@ -26684,7 +26809,7 @@
         <v>724</v>
       </c>
       <c r="D990" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E990" t="s">
         <v>23</v>
@@ -26731,7 +26856,7 @@
         <v>724</v>
       </c>
       <c r="D991" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E991" t="s">
         <v>23</v>
@@ -26778,7 +26903,7 @@
         <v>724</v>
       </c>
       <c r="D992" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E992" t="s">
         <v>65</v>
@@ -26824,7 +26949,7 @@
         <v>724</v>
       </c>
       <c r="D994" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E994" t="s">
         <v>65</v>
@@ -26871,7 +26996,7 @@
         <v>724</v>
       </c>
       <c r="D995" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E995" t="s">
         <v>23</v>
@@ -26918,7 +27043,7 @@
         <v>724</v>
       </c>
       <c r="D996" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E996" t="s">
         <v>23</v>
@@ -26965,7 +27090,7 @@
         <v>724</v>
       </c>
       <c r="D997" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E997" t="s">
         <v>65</v>
@@ -26988,7 +27113,7 @@
         <v>724</v>
       </c>
       <c r="D998" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E998" t="s">
         <v>23</v>
@@ -27035,7 +27160,7 @@
         <v>724</v>
       </c>
       <c r="D999" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E999" t="s">
         <v>65</v>
@@ -27082,7 +27207,7 @@
         <v>724</v>
       </c>
       <c r="D1000" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E1000" t="s">
         <v>23</v>
@@ -27129,7 +27254,7 @@
         <v>724</v>
       </c>
       <c r="D1001" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E1001" t="s">
         <v>65</v>
@@ -27176,7 +27301,7 @@
         <v>724</v>
       </c>
       <c r="D1002" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E1002" t="s">
         <v>23</v>
@@ -27246,7 +27371,7 @@
         <v>724</v>
       </c>
       <c r="D1004" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E1004" t="s">
         <v>489</v>
@@ -27316,10 +27441,10 @@
     </row>
     <row r="1013" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B1013" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="1014" spans="1:20" x14ac:dyDescent="0.25">
@@ -27435,7 +27560,7 @@
     </row>
     <row r="1017" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B1017">
         <v>1.07821560863573</v>
@@ -27476,7 +27601,7 @@
     </row>
     <row r="1018" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B1018">
         <v>0.41391872714782402</v>
@@ -27561,7 +27686,7 @@
     </row>
     <row r="1020" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1020">
         <v>2.28997134991266E-6</v>
@@ -27602,7 +27727,7 @@
     </row>
     <row r="1021" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B1021">
         <v>3.1160234657643699E-5</v>
@@ -27643,7 +27768,7 @@
     </row>
     <row r="1022" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B1022">
         <v>1.23494791319831E-5</v>
@@ -27684,7 +27809,7 @@
     </row>
     <row r="1023" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B1023">
         <v>7.3367657967669503E-2</v>
@@ -27954,7 +28079,7 @@
         <v>724</v>
       </c>
       <c r="D1029" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E1029" t="s">
         <v>65</v>
@@ -28001,7 +28126,7 @@
         <v>724</v>
       </c>
       <c r="D1030" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E1030" t="s">
         <v>23</v>
@@ -28048,7 +28173,7 @@
         <v>724</v>
       </c>
       <c r="D1031" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E1031" t="s">
         <v>23</v>
@@ -28095,7 +28220,7 @@
         <v>724</v>
       </c>
       <c r="D1032" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E1032" t="s">
         <v>23</v>
@@ -28142,7 +28267,7 @@
         <v>724</v>
       </c>
       <c r="D1033" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E1033" t="s">
         <v>23</v>
@@ -28189,7 +28314,7 @@
         <v>724</v>
       </c>
       <c r="D1034" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E1034" t="s">
         <v>23</v>
@@ -28283,7 +28408,7 @@
         <v>724</v>
       </c>
       <c r="D1036" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E1036" t="s">
         <v>65</v>
@@ -28330,7 +28455,7 @@
         <v>724</v>
       </c>
       <c r="D1037" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E1037" t="s">
         <v>65</v>
@@ -28377,7 +28502,7 @@
         <v>724</v>
       </c>
       <c r="D1038" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E1038" t="s">
         <v>23</v>
@@ -28424,7 +28549,7 @@
         <v>724</v>
       </c>
       <c r="D1039" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E1039" t="s">
         <v>23</v>
@@ -28471,7 +28596,7 @@
         <v>724</v>
       </c>
       <c r="D1040" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E1040" t="s">
         <v>23</v>
@@ -28518,7 +28643,7 @@
         <v>724</v>
       </c>
       <c r="D1041" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E1041" t="s">
         <v>23</v>
@@ -28612,7 +28737,7 @@
         <v>724</v>
       </c>
       <c r="D1043" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E1043" t="s">
         <v>23</v>
@@ -28706,7 +28831,7 @@
         <v>724</v>
       </c>
       <c r="D1045" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E1045" t="s">
         <v>65</v>

--- a/premise/data/additional_inventories/lci-batteries-SIB.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-SIB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4DB1A-6332-4F4A-A89D-B99EFB8D6CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E639F8-9397-A746-B031-8B6FD43B763A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="1740" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sodium-ion batteries" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="259">
   <si>
     <t>Database</t>
   </si>
@@ -777,14 +777,109 @@
   <si>
     <t>8561a2eecd6e4f8a9bfd165b2a7332e0</t>
   </si>
+  <si>
+    <t>production amount</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market for battery, Sodium-ion, SiB</t>
+  </si>
+  <si>
+    <t>battery, SiB</t>
+  </si>
+  <si>
+    <t>battery module production, for LiS battery</t>
+  </si>
+  <si>
+    <t>aluminium busbar production, for LiS battery</t>
+  </si>
+  <si>
+    <t>aluminium busbar</t>
+  </si>
+  <si>
+    <t>bimetallic busbar production, for LiS battery</t>
+  </si>
+  <si>
+    <t>bimetallic busbar</t>
+  </si>
+  <si>
+    <t>copper busbar production, for LiS battery</t>
+  </si>
+  <si>
+    <t>copper busbar</t>
+  </si>
+  <si>
+    <t>market for polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>polypropylene, granulate</t>
+  </si>
+  <si>
+    <t>market for steel, low-alloyed</t>
+  </si>
+  <si>
+    <t>market for injection moulding</t>
+  </si>
+  <si>
+    <t>injection moulding</t>
+  </si>
+  <si>
+    <t>market for metal working, average for steel product manufacturing</t>
+  </si>
+  <si>
+    <t>metal working, average for steel product manufacturing</t>
+  </si>
+  <si>
+    <t>battery module production, for SiB battery</t>
+  </si>
+  <si>
+    <t>Taken from Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. Based on Ainsworth (2016), Peters and Weil (2017), Ellingsen et al. (2014) and adapted to SiB battery cells.</t>
+  </si>
+  <si>
+    <t>battery, SiB module</t>
+  </si>
+  <si>
+    <t>Originally from  Wickerts et al. (2023). Prospective Life Cycle Assessment of Lithium-Sulfur Batteries for Stationary Energy Storage. ACS Sustainable Chemistry &amp; Engineering. Based on Ainsworth (2016), Peters and Weil (2017), Ellingsen et al. (2014), but adapted to SiB batterx cells since the publication does not give information on packing.</t>
+  </si>
+  <si>
+    <t>One kilogram 21700 NMMT-hard carbon battery cell inside battery pack, with a unit weight of 56.2g, a voltage of 3.2 V, a speciifc energy of 157 Wh/kg. Lifetime: 628 kWh/kg cell (4000 cycles x 0.157 kWh), 4'000 cycles. Source: Zhang, S., Steubing, B., Potter, H. K., Hansson, P. A., &amp; Nordberg, Å. (2024). Future climate impacts of sodium-ion batteries. Resources, Conservation and Recycling, 202, 107362. https://doi.org/10.1016/j.resconrec.2023.107362</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -801,6 +896,14 @@
     <font>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -827,9 +930,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K478"/>
+  <dimension ref="A1:K514"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8745,6 +8857,506 @@
         <v>219</v>
       </c>
     </row>
+    <row r="480" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>3</v>
+      </c>
+      <c r="B482" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>232</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>6</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>218</v>
+      </c>
+      <c r="B486" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A487" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>9</v>
+      </c>
+      <c r="B488" t="s">
+        <v>10</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" t="s">
+        <v>12</v>
+      </c>
+      <c r="E488" t="s">
+        <v>3</v>
+      </c>
+      <c r="F488" t="s">
+        <v>13</v>
+      </c>
+      <c r="G488" t="s">
+        <v>5</v>
+      </c>
+      <c r="H488" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>240</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="C489" t="s">
+        <v>7</v>
+      </c>
+      <c r="E489" t="s">
+        <v>21</v>
+      </c>
+      <c r="F489" t="s">
+        <v>18</v>
+      </c>
+      <c r="G489" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>205</v>
+      </c>
+      <c r="B490" s="4">
+        <f>408*0.046/24.971</f>
+        <v>0.75159184654198874</v>
+      </c>
+      <c r="C490" t="s">
+        <v>7</v>
+      </c>
+      <c r="E490" t="s">
+        <v>4</v>
+      </c>
+      <c r="F490" t="s">
+        <v>19</v>
+      </c>
+      <c r="G490" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>241</v>
+      </c>
+      <c r="B491" s="4">
+        <f>0.275/24.971</f>
+        <v>1.1012774818789798E-2</v>
+      </c>
+      <c r="C491" t="s">
+        <v>7</v>
+      </c>
+      <c r="E491" t="s">
+        <v>21</v>
+      </c>
+      <c r="F491" t="s">
+        <v>19</v>
+      </c>
+      <c r="G491" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>243</v>
+      </c>
+      <c r="B492" s="4">
+        <f>0.593/24.971</f>
+        <v>2.3747547154699448E-2</v>
+      </c>
+      <c r="C492" t="s">
+        <v>7</v>
+      </c>
+      <c r="E492" t="s">
+        <v>21</v>
+      </c>
+      <c r="F492" t="s">
+        <v>19</v>
+      </c>
+      <c r="G492" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B493" s="5">
+        <f>0.085/24.971</f>
+        <v>3.4039485803532099E-3</v>
+      </c>
+      <c r="C493" t="s">
+        <v>7</v>
+      </c>
+      <c r="E493" t="s">
+        <v>21</v>
+      </c>
+      <c r="F493" t="s">
+        <v>19</v>
+      </c>
+      <c r="G493" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>247</v>
+      </c>
+      <c r="B494" s="6">
+        <f>2.75/24.971</f>
+        <v>0.11012774818789796</v>
+      </c>
+      <c r="C494" t="s">
+        <v>7</v>
+      </c>
+      <c r="E494" t="s">
+        <v>21</v>
+      </c>
+      <c r="F494" t="s">
+        <v>19</v>
+      </c>
+      <c r="G494" t="s">
+        <v>248</v>
+      </c>
+      <c r="I494" s="7"/>
+      <c r="J494" s="8"/>
+      <c r="K494" s="8"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>249</v>
+      </c>
+      <c r="B495" s="6">
+        <f>2.5/24.971</f>
+        <v>0.10011613471627087</v>
+      </c>
+      <c r="C495" t="s">
+        <v>7</v>
+      </c>
+      <c r="E495" t="s">
+        <v>21</v>
+      </c>
+      <c r="F495" t="s">
+        <v>19</v>
+      </c>
+      <c r="G495" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>250</v>
+      </c>
+      <c r="B496" s="6">
+        <f>2.75/24.971</f>
+        <v>0.11012774818789796</v>
+      </c>
+      <c r="C496" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" t="s">
+        <v>21</v>
+      </c>
+      <c r="F496" t="s">
+        <v>19</v>
+      </c>
+      <c r="G496" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>252</v>
+      </c>
+      <c r="B497" s="9">
+        <f>2.5/24.971</f>
+        <v>0.10011613471627087</v>
+      </c>
+      <c r="C497" t="s">
+        <v>7</v>
+      </c>
+      <c r="E497" t="s">
+        <v>21</v>
+      </c>
+      <c r="F497" t="s">
+        <v>19</v>
+      </c>
+      <c r="G497" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B498" s="10"/>
+    </row>
+    <row r="499" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>2</v>
+      </c>
+      <c r="B500" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>3</v>
+      </c>
+      <c r="B501" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>232</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>6</v>
+      </c>
+      <c r="B504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>218</v>
+      </c>
+      <c r="B505" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A508" s="3" t="str">
+        <f>B499</f>
+        <v>market for battery, Sodium-ion, SiB</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508" t="s">
+        <v>7</v>
+      </c>
+      <c r="E508" t="str">
+        <f>B501</f>
+        <v>GLO</v>
+      </c>
+      <c r="F508" t="s">
+        <v>18</v>
+      </c>
+      <c r="G508" t="str">
+        <f>B503</f>
+        <v>battery, SiB</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A509" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509" t="s">
+        <v>7</v>
+      </c>
+      <c r="E509" t="s">
+        <v>21</v>
+      </c>
+      <c r="F509" t="s">
+        <v>19</v>
+      </c>
+      <c r="G509" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>27</v>
+      </c>
+      <c r="B510">
+        <v>0.30910727700000001</v>
+      </c>
+      <c r="C510" t="s">
+        <v>24</v>
+      </c>
+      <c r="E510" t="s">
+        <v>21</v>
+      </c>
+      <c r="F510" t="s">
+        <v>19</v>
+      </c>
+      <c r="G510" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>233</v>
+      </c>
+      <c r="B511">
+        <v>2.4627409999999999E-2</v>
+      </c>
+      <c r="C511" t="s">
+        <v>24</v>
+      </c>
+      <c r="E511" t="s">
+        <v>21</v>
+      </c>
+      <c r="F511" t="s">
+        <v>19</v>
+      </c>
+      <c r="G511" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>235</v>
+      </c>
+      <c r="B512">
+        <v>0.20877976500000001</v>
+      </c>
+      <c r="C512" t="s">
+        <v>24</v>
+      </c>
+      <c r="E512" t="s">
+        <v>21</v>
+      </c>
+      <c r="F512" t="s">
+        <v>19</v>
+      </c>
+      <c r="G512" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>236</v>
+      </c>
+      <c r="B513">
+        <v>0.59901584900000004</v>
+      </c>
+      <c r="C513" t="s">
+        <v>24</v>
+      </c>
+      <c r="E513" t="s">
+        <v>21</v>
+      </c>
+      <c r="F513" t="s">
+        <v>19</v>
+      </c>
+      <c r="G513" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K478" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
